--- a/doc/log/log_201608040133.xlsx
+++ b/doc/log/log_201608040133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>周次</t>
   </si>
@@ -61,19 +61,56 @@
   </si>
   <si>
     <t>成功</t>
+  </si>
+  <si>
+    <t>导航模块创建</t>
+  </si>
+  <si>
+    <t>dao层</t>
+  </si>
+  <si>
+    <t>创建导航模块</t>
+  </si>
+  <si>
+    <t>完善导航模块</t>
+  </si>
+  <si>
+    <t>service层</t>
+  </si>
+  <si>
+    <t>service层导航创建</t>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>web层</t>
+  </si>
+  <si>
+    <t>创建web层导航</t>
+  </si>
+  <si>
+    <t>学习完善</t>
+  </si>
+  <si>
+    <t>学习配置jenkins</t>
+  </si>
+  <si>
+    <t>失败，要有购买</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,41 +122,103 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,45 +240,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -187,32 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,14 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +272,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +498,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -476,36 +521,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,159 +548,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1035,21 +1071,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="15.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="37.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1060,7 +1096,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1071,7 +1107,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1082,7 +1118,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1093,7 +1129,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -1101,6 +1137,152 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>43288</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040133.xlsx
+++ b/doc/log/log_201608040133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>周次</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>失败，要有购买</t>
+  </si>
+  <si>
+    <t>jira学习</t>
+  </si>
+  <si>
+    <t>懵懵懂懂，不会用</t>
+  </si>
+  <si>
+    <t>大概了解</t>
+  </si>
+  <si>
+    <t>项目立项申请书</t>
+  </si>
+  <si>
+    <t>编写</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1089,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1260,24 +1275,48 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43284</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43285</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43286</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
